--- a/6.ArbolDecisiones/datos.xlsx
+++ b/6.ArbolDecisiones/datos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1193118972\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luism\Documentos\CienciasComputacion\6.ArbolDecisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAA1882-8D31-48F5-B328-F601593959DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,11 +381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,102 +393,102 @@
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
       </c>
       <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
         <v>0</v>
       </c>
     </row>
